--- a/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,08%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>51,14; 70,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>59,56; 76,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>53,73; 71,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>45,5; 66,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>60,62; 76,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>61,87; 79,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>60,77; 77,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>49,2; 63,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>58,8; 71,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>63,03; 75,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>59,67; 71,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>49,86; 62,22</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,65%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>63,9; 71,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>50,67; 58,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>72,51; 79,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>48,19; 57,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>63,35; 70,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>57,86; 65,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>76,26; 82,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>53,35; 60,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>64,57; 70,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>55,05; 61,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>75,21; 80,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>51,84; 57,41</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>57,17; 63,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>58,88; 65,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>70,7; 76,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>45,75; 59,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>59,16; 65,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>64,54; 70,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>74,38; 79,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>59,13; 65,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>58,7; 63,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>62,79; 66,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>73,23; 77,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>54,11; 61,41</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>52,61; 60,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>55,73; 63,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>77,34; 83,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>55,51; 63,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>54,64; 61,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>58,27; 65,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>79,36; 84,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>56,3; 76,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>54,76; 60,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>58,03; 63,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>79,49; 83,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>57,65; 69,73</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,39%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,82%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,2%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,07%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>56,25; 62,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>64,18; 70,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>65,74; 71,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>53,3; 60,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>55,21; 61,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>68,78; 74,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>66,61; 72,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>51,95; 58,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>56,61; 61,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>67,54; 71,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>66,98; 71,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>53,7; 58,25</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,85%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>58,95; 62,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>60,38; 63,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>72,36; 75,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>53,18; 58,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>59,65; 62,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>65,15; 68,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,53; 77,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>57,3; 63,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>59,76; 62,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>63,18; 65,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>74,07; 76,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>56,24; 59,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,21%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>57,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>50,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>69,41%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>63,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>69,53%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>55,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>65,26%</t>
+          <t>67,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>69,71%</t>
+          <t>60,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>75,79%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>53,48%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,14; 70,35</t>
+          <t>63,59; 70,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,56; 76,34</t>
+          <t>53,01; 60,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,73; 71,49</t>
+          <t>70,18; 77,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,5; 66,74</t>
+          <t>46,6; 55,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,62; 76,42</t>
+          <t>63,64; 70,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,87; 79,92</t>
+          <t>59,21; 67,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,77; 77,54</t>
+          <t>74,54; 81,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,2; 63,46</t>
+          <t>52,57; 58,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,8; 71,0</t>
+          <t>64,5; 69,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63,03; 75,89</t>
+          <t>57,74; 62,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,67; 71,95</t>
+          <t>73,35; 78,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,86; 62,22</t>
+          <t>50,72; 55,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>62,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,18%</t>
+          <t>73,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>77,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>67,49%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>77,83%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>52,62%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,9; 71,95</t>
+          <t>57,17; 63,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,67; 58,93</t>
+          <t>58,88; 65,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,51; 79,96</t>
+          <t>70,7; 76,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,19; 57,2</t>
+          <t>23,8; 58,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,35; 70,77</t>
+          <t>59,16; 65,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,86; 65,85</t>
+          <t>64,54; 70,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,26; 82,83</t>
+          <t>74,38; 79,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,35; 60,46</t>
+          <t>58,25; 64,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,57; 70,3</t>
+          <t>58,7; 63,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,05; 61,21</t>
+          <t>62,79; 66,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>75,21; 80,13</t>
+          <t>73,23; 77,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,84; 57,41</t>
+          <t>34,22; 60,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60,23%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73,65%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55,58%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,35%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,29%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>62,55%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,17; 63,53</t>
+          <t>52,61; 60,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,88; 65,06</t>
+          <t>55,73; 63,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,7; 76,34</t>
+          <t>77,34; 83,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,75; 59,99</t>
+          <t>54,74; 63,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,16; 65,57</t>
+          <t>54,64; 61,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,54; 70,53</t>
+          <t>58,27; 65,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,38; 79,79</t>
+          <t>79,36; 84,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,13; 65,04</t>
+          <t>53,23; 81,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,7; 63,33</t>
+          <t>54,76; 60,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62,79; 66,96</t>
+          <t>58,03; 63,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,23; 77,19</t>
+          <t>79,49; 83,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>54,11; 61,41</t>
+          <t>56,09; 75,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>59,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>67,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,74%</t>
+          <t>54,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,0%</t>
+          <t>71,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,06%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>58,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>69,2%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>53,06%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,61; 60,77</t>
+          <t>56,25; 62,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,73; 63,24</t>
+          <t>64,18; 70,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,34; 83,51</t>
+          <t>65,74; 71,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,51; 63,88</t>
+          <t>51,32; 58,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,64; 61,6</t>
+          <t>55,21; 61,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,27; 65,67</t>
+          <t>68,78; 74,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,36; 84,72</t>
+          <t>66,61; 72,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,3; 76,0</t>
+          <t>39,37; 55,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,76; 60,19</t>
+          <t>56,61; 61,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,03; 63,37</t>
+          <t>67,54; 71,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,49; 83,46</t>
+          <t>66,98; 71,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,65; 69,73</t>
+          <t>47,08; 56,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>67,39%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>71,84%</t>
+          <t>66,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>69,55%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>55,4%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>69,72%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>55,2%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,25; 62,47</t>
+          <t>58,95; 62,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64,18; 70,54</t>
+          <t>60,38; 63,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,74; 71,78</t>
+          <t>72,36; 75,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,3; 60,02</t>
+          <t>39,68; 56,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,21; 61,28</t>
+          <t>59,65; 62,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,78; 74,76</t>
+          <t>65,15; 68,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,61; 72,36</t>
+          <t>74,53; 77,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,95; 58,27</t>
+          <t>54,67; 66,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,61; 61,15</t>
+          <t>59,76; 62,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,54; 71,85</t>
+          <t>63,18; 65,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>66,98; 71,2</t>
+          <t>74,07; 76,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,7; 58,25</t>
+          <t>49,32; 58,67</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>60,7%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>61,94%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>73,94%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>56,37%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>61,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>66,83%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>76,09%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>59,17%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>60,98%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>64,43%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>75,04%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>57,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>58,95; 62,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>60,38; 63,69</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>72,36; 75,49</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>53,18; 58,41</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>59,65; 62,89</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>65,15; 68,44</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>74,53; 77,51</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>57,3; 63,92</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>59,76; 62,22</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>63,18; 65,65</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>74,07; 76,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>56,24; 59,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,59; 70,57</t>
+          <t>63,13; 70,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,01; 60,83</t>
+          <t>53,22; 60,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,18; 77,05</t>
+          <t>69,99; 76,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,6; 55,26</t>
+          <t>46,4; 54,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,64; 70,77</t>
+          <t>63,35; 70,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,21; 67,24</t>
+          <t>59,46; 67,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>74,54; 81,01</t>
+          <t>74,46; 81,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,57; 58,96</t>
+          <t>52,7; 58,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,5; 69,63</t>
+          <t>64,53; 69,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57,74; 62,86</t>
+          <t>57,42; 62,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>73,35; 78,25</t>
+          <t>73,53; 78,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>50,72; 55,98</t>
+          <t>50,78; 55,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,17; 63,53</t>
+          <t>56,67; 63,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,88; 65,06</t>
+          <t>58,77; 65,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,7; 76,34</t>
+          <t>70,83; 76,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,8; 58,78</t>
+          <t>25,03; 58,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,16; 65,57</t>
+          <t>59,19; 65,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,54; 70,53</t>
+          <t>64,46; 70,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,38; 79,79</t>
+          <t>74,57; 79,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,25; 64,2</t>
+          <t>58,19; 63,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,7; 63,33</t>
+          <t>59,06; 63,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>62,79; 66,96</t>
+          <t>62,51; 66,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73,23; 77,19</t>
+          <t>73,32; 77,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,22; 60,17</t>
+          <t>35,64; 60,14</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,61; 60,77</t>
+          <t>52,66; 60,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,73; 63,24</t>
+          <t>55,71; 63,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,34; 83,51</t>
+          <t>77,92; 83,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54,74; 63,31</t>
+          <t>54,76; 63,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,64; 61,6</t>
+          <t>54,95; 62,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,27; 65,67</t>
+          <t>58,51; 65,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,36; 84,72</t>
+          <t>79,19; 84,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,23; 81,87</t>
+          <t>52,81; 81,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,76; 60,19</t>
+          <t>54,48; 59,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,03; 63,37</t>
+          <t>58,2; 63,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>79,49; 83,46</t>
+          <t>79,38; 83,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,09; 75,98</t>
+          <t>56,07; 77,12</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,25; 62,47</t>
+          <t>56,5; 62,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,18; 70,54</t>
+          <t>64,22; 70,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,74; 71,78</t>
+          <t>66,22; 71,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,32; 58,3</t>
+          <t>51,31; 58,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,21; 61,28</t>
+          <t>55,1; 61,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,78; 74,76</t>
+          <t>69,18; 74,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,61; 72,36</t>
+          <t>66,64; 72,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,37; 55,99</t>
+          <t>39,67; 56,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,61; 61,15</t>
+          <t>56,65; 60,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,54; 71,85</t>
+          <t>67,62; 71,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>66,98; 71,2</t>
+          <t>67,1; 71,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,08; 56,0</t>
+          <t>46,56; 55,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,95; 62,32</t>
+          <t>59,15; 62,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,38; 63,69</t>
+          <t>60,1; 63,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,36; 75,49</t>
+          <t>72,31; 75,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,68; 56,55</t>
+          <t>39,25; 56,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,65; 62,89</t>
+          <t>59,51; 62,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,15; 68,44</t>
+          <t>65,2; 68,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,53; 77,51</t>
+          <t>74,56; 77,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,67; 66,72</t>
+          <t>54,62; 65,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,76; 62,22</t>
+          <t>59,81; 62,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,18; 65,65</t>
+          <t>63,27; 65,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>74,07; 76,07</t>
+          <t>74,01; 76,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,32; 58,67</t>
+          <t>49,44; 58,84</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>464461</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>399012</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>496415</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>320299</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>462753</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>438012</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>520507</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>373127</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>927214</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>837024</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1016922</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>693427</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>438102; 486644</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>371808; 423514</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>470907; 517921</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>291465; 344600</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>435418; 487033</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>411101; 464133</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>498105; 541910</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>352334; 393714</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>891400; 961809</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>798098; 871581</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>986650; 1049646</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>658523; 725998</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>578667</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>628671</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>751451</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>542745</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>603756</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>695050</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>799954</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>580763</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1182423</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1323720</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1551406</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1123509</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>544442; 611515</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>595798; 660515</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>722667; 777609</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>296792; 695541</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>573170; 636381</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>661294; 725278</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>773882; 826120</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>552452; 606376</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1139265; 1221350</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1274923; 1366413</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1509043; 1590450</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>761065; 1284199</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1154</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>383737</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>446448</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>609693</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>415432</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>397446</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>480551</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>638221</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>606379</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>781184</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>926999</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1247914</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1021811</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>356371; 408058</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>418057; 473557</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>587809; 629811</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>385062; 447347</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>375791; 424970</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>453496; 509326</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>615877; 658922</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>491257; 759945</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>741239; 815852</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>887774; 965075</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1216203; 1276481</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>915955; 1259807</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>559194</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>635356</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>640896</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>503298</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>604425</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>746930</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>724282</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>556520</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1163618</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1382285</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1365177</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1059818</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>531451; 589837</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>605553; 664152</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>616834; 670008</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>470124; 536356</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>571760; 635593</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>719281; 774817</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>693937; 757345</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>428946; 607215</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1120617; 1204600</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1340742; 1424166</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1323759; 1409362</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>930075; 1116448</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2517</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4896</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1986059</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2109487</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2498453</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1781775</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2068380</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2360541</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2682965</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2116789</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4054439</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4470028</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5181419</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3898565</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1935520; 2047449</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2047014; 2164819</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2443440; 2549433</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1347645; 1940319</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2009712; 2120774</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2303002; 2419673</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2628925; 2732085</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1982363; 2366368</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3977174; 4128712</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4389377; 4546755</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5110015; 5256477</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3491972; 4156024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>